--- a/random_excels/competition_05.xlsx
+++ b/random_excels/competition_05.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ff42fe3cf594573e/Desktop/projekt/random_excels/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A48BE504-68DB-49DC-A402-8CBBD0727FF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{A48BE504-68DB-49DC-A402-8CBBD0727FF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2196887E-CDA8-43FB-B2D1-08C5CFE132DA}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{5F1E6BAA-BD68-4497-9031-F7BC264C2E17}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{5F1E6BAA-BD68-4497-9031-F7BC264C2E17}"/>
   </bookViews>
   <sheets>
     <sheet name="logFile" sheetId="2" r:id="rId1"/>
-    <sheet name="Arkusz1" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="ExternalData_1" localSheetId="0" hidden="1">logFile!$A$1:$T$101</definedName>
@@ -48,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>countGenderMixHard</t>
   </si>
@@ -110,306 +109,6 @@
     <t>res</t>
   </si>
   <si>
-    <t>13987053.000000</t>
-  </si>
-  <si>
-    <t>12987763.000000</t>
-  </si>
-  <si>
-    <t>12914222.000000</t>
-  </si>
-  <si>
-    <t>13539927.000000</t>
-  </si>
-  <si>
-    <t>12515292.000000</t>
-  </si>
-  <si>
-    <t>13713853.000000</t>
-  </si>
-  <si>
-    <t>13413673.000000</t>
-  </si>
-  <si>
-    <t>13713019.000000</t>
-  </si>
-  <si>
-    <t>14863807.000000</t>
-  </si>
-  <si>
-    <t>14013839.000000</t>
-  </si>
-  <si>
-    <t>14013910.000000</t>
-  </si>
-  <si>
-    <t>12689070.000000</t>
-  </si>
-  <si>
-    <t>13814820.000000</t>
-  </si>
-  <si>
-    <t>14063379.000000</t>
-  </si>
-  <si>
-    <t>12889770.000000</t>
-  </si>
-  <si>
-    <t>13863852.000000</t>
-  </si>
-  <si>
-    <t>14038096.000000</t>
-  </si>
-  <si>
-    <t>13713483.000000</t>
-  </si>
-  <si>
-    <t>13938882.000000</t>
-  </si>
-  <si>
-    <t>13264053.000000</t>
-  </si>
-  <si>
-    <t>14263216.000000</t>
-  </si>
-  <si>
-    <t>13739140.000000</t>
-  </si>
-  <si>
-    <t>13013601.000000</t>
-  </si>
-  <si>
-    <t>12689857.000000</t>
-  </si>
-  <si>
-    <t>13364612.000000</t>
-  </si>
-  <si>
-    <t>13363367.000000</t>
-  </si>
-  <si>
-    <t>13013713.000000</t>
-  </si>
-  <si>
-    <t>13738763.000000</t>
-  </si>
-  <si>
-    <t>13839217.000000</t>
-  </si>
-  <si>
-    <t>13239310.000000</t>
-  </si>
-  <si>
-    <t>13389465.000000</t>
-  </si>
-  <si>
-    <t>13437937.000000</t>
-  </si>
-  <si>
-    <t>13964019.000000</t>
-  </si>
-  <si>
-    <t>13663584.000000</t>
-  </si>
-  <si>
-    <t>14263202.000000</t>
-  </si>
-  <si>
-    <t>13637477.000000</t>
-  </si>
-  <si>
-    <t>13064442.000000</t>
-  </si>
-  <si>
-    <t>13864014.000000</t>
-  </si>
-  <si>
-    <t>13038451.000000</t>
-  </si>
-  <si>
-    <t>13938274.000000</t>
-  </si>
-  <si>
-    <t>13338354.000000</t>
-  </si>
-  <si>
-    <t>13239705.000000</t>
-  </si>
-  <si>
-    <t>14288470.000000</t>
-  </si>
-  <si>
-    <t>13814368.000000</t>
-  </si>
-  <si>
-    <t>13938976.000000</t>
-  </si>
-  <si>
-    <t>13889641.000000</t>
-  </si>
-  <si>
-    <t>13739035.000000</t>
-  </si>
-  <si>
-    <t>13089062.000000</t>
-  </si>
-  <si>
-    <t>13688204.000000</t>
-  </si>
-  <si>
-    <t>13388224.000000</t>
-  </si>
-  <si>
-    <t>13938335.000000</t>
-  </si>
-  <si>
-    <t>14438221.000000</t>
-  </si>
-  <si>
-    <t>13413637.000000</t>
-  </si>
-  <si>
-    <t>14164524.000000</t>
-  </si>
-  <si>
-    <t>13863838.000000</t>
-  </si>
-  <si>
-    <t>12339861.000000</t>
-  </si>
-  <si>
-    <t>13362582.000000</t>
-  </si>
-  <si>
-    <t>13463111.000000</t>
-  </si>
-  <si>
-    <t>14412518.000000</t>
-  </si>
-  <si>
-    <t>13788682.000000</t>
-  </si>
-  <si>
-    <t>14464393.000000</t>
-  </si>
-  <si>
-    <t>13663253.000000</t>
-  </si>
-  <si>
-    <t>12739051.000000</t>
-  </si>
-  <si>
-    <t>13913305.000000</t>
-  </si>
-  <si>
-    <t>12514278.000000</t>
-  </si>
-  <si>
-    <t>13488375.000000</t>
-  </si>
-  <si>
-    <t>13938726.000000</t>
-  </si>
-  <si>
-    <t>13638669.000000</t>
-  </si>
-  <si>
-    <t>14364177.000000</t>
-  </si>
-  <si>
-    <t>12539036.000000</t>
-  </si>
-  <si>
-    <t>13639194.000000</t>
-  </si>
-  <si>
-    <t>12813934.000000</t>
-  </si>
-  <si>
-    <t>14187991.000000</t>
-  </si>
-  <si>
-    <t>13288729.000000</t>
-  </si>
-  <si>
-    <t>14513526.000000</t>
-  </si>
-  <si>
-    <t>13539305.000000</t>
-  </si>
-  <si>
-    <t>14112679.000000</t>
-  </si>
-  <si>
-    <t>13313659.000000</t>
-  </si>
-  <si>
-    <t>13562456.000000</t>
-  </si>
-  <si>
-    <t>13939027.000000</t>
-  </si>
-  <si>
-    <t>13437934.000000</t>
-  </si>
-  <si>
-    <t>13164363.000000</t>
-  </si>
-  <si>
-    <t>14737507.000000</t>
-  </si>
-  <si>
-    <t>13563675.000000</t>
-  </si>
-  <si>
-    <t>13389945.000000</t>
-  </si>
-  <si>
-    <t>12764358.000000</t>
-  </si>
-  <si>
-    <t>14213341.000000</t>
-  </si>
-  <si>
-    <t>12963627.000000</t>
-  </si>
-  <si>
-    <t>12988457.000000</t>
-  </si>
-  <si>
-    <t>12939941.000000</t>
-  </si>
-  <si>
-    <t>14188548.000000</t>
-  </si>
-  <si>
-    <t>13863721.000000</t>
-  </si>
-  <si>
-    <t>13239020.000000</t>
-  </si>
-  <si>
-    <t>12814515.000000</t>
-  </si>
-  <si>
-    <t>13513650.000000</t>
-  </si>
-  <si>
-    <t>13838107.000000</t>
-  </si>
-  <si>
-    <t>13788331.000000</t>
-  </si>
-  <si>
-    <t>14038211.000000</t>
-  </si>
-  <si>
-    <t>12288806.000000</t>
-  </si>
-  <si>
-    <t>13838905.000000</t>
-  </si>
-  <si>
     <t>max</t>
   </si>
   <si>
@@ -436,21 +135,15 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor theme="9" tint="0.79998168889431442"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -458,28 +151,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="9" tint="0.39997558519241921"/>
-      </right>
-      <top style="thin">
-        <color theme="9" tint="0.39997558519241921"/>
-      </top>
-      <bottom style="thin">
-        <color theme="9" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -876,10 +553,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEAEA1DA-D5AF-433B-88D1-70F24DB24001}">
-  <dimension ref="A1:T101"/>
+  <dimension ref="A1:W101"/>
   <sheetViews>
-    <sheetView topLeftCell="Q73" workbookViewId="0">
-      <selection activeCell="T2" sqref="T2:T101"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U12" sqref="U12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -906,7 +583,7 @@
     <col min="20" max="20" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -968,7 +645,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>78</v>
       </c>
@@ -1026,11 +703,11 @@
       <c r="S2">
         <v>1415</v>
       </c>
-      <c r="T2" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T2">
+        <v>13987053</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>61</v>
       </c>
@@ -1088,11 +765,11 @@
       <c r="S3">
         <v>1594</v>
       </c>
-      <c r="T3" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T3">
+        <v>12987763</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>61</v>
       </c>
@@ -1150,11 +827,18 @@
       <c r="S4">
         <v>1704</v>
       </c>
-      <c r="T4" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T4">
+        <v>12914222</v>
+      </c>
+      <c r="V4" t="s">
+        <v>20</v>
+      </c>
+      <c r="W4">
+        <f>MAX(T2:T101)</f>
+        <v>14863807</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>77</v>
       </c>
@@ -1212,11 +896,18 @@
       <c r="S5">
         <v>1739</v>
       </c>
-      <c r="T5" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T5">
+        <v>13539927</v>
+      </c>
+      <c r="V5" t="s">
+        <v>21</v>
+      </c>
+      <c r="W5">
+        <f>MIN(T2:T101)</f>
+        <v>12288806</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>70</v>
       </c>
@@ -1274,11 +965,18 @@
       <c r="S6">
         <v>1789</v>
       </c>
-      <c r="T6" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T6">
+        <v>12515292</v>
+      </c>
+      <c r="V6" t="s">
+        <v>22</v>
+      </c>
+      <c r="W6">
+        <f>AVERAGEA(T2:T101)</f>
+        <v>13578254.970000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>58</v>
       </c>
@@ -1336,11 +1034,18 @@
       <c r="S7">
         <v>1577</v>
       </c>
-      <c r="T7" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T7">
+        <v>13713853</v>
+      </c>
+      <c r="V7" t="s">
+        <v>23</v>
+      </c>
+      <c r="W7">
+        <f>STDEVA(T2:T101)</f>
+        <v>539799.37635847554</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>61</v>
       </c>
@@ -1398,11 +1103,11 @@
       <c r="S8">
         <v>1623</v>
       </c>
-      <c r="T8" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T8">
+        <v>13413673</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>84</v>
       </c>
@@ -1460,11 +1165,11 @@
       <c r="S9">
         <v>1599</v>
       </c>
-      <c r="T9" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T9">
+        <v>13713019</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>90</v>
       </c>
@@ -1522,11 +1227,11 @@
       <c r="S10">
         <v>1634</v>
       </c>
-      <c r="T10" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T10">
+        <v>14863807</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>68</v>
       </c>
@@ -1584,11 +1289,11 @@
       <c r="S11">
         <v>1651</v>
       </c>
-      <c r="T11" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T11">
+        <v>14013839</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>72</v>
       </c>
@@ -1646,11 +1351,11 @@
       <c r="S12">
         <v>1756</v>
       </c>
-      <c r="T12" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T12">
+        <v>14013910</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>68</v>
       </c>
@@ -1708,11 +1413,11 @@
       <c r="S13">
         <v>1676</v>
       </c>
-      <c r="T13" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T13">
+        <v>12689070</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>67</v>
       </c>
@@ -1770,11 +1475,11 @@
       <c r="S14">
         <v>1658</v>
       </c>
-      <c r="T14" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T14">
+        <v>13814820</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>76</v>
       </c>
@@ -1832,11 +1537,11 @@
       <c r="S15">
         <v>1546</v>
       </c>
-      <c r="T15" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T15">
+        <v>14063379</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>79</v>
       </c>
@@ -1894,8 +1599,8 @@
       <c r="S16">
         <v>1768</v>
       </c>
-      <c r="T16" s="1" t="s">
-        <v>34</v>
+      <c r="T16">
+        <v>12889770</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.3">
@@ -1956,8 +1661,8 @@
       <c r="S17">
         <v>1606</v>
       </c>
-      <c r="T17" s="1" t="s">
-        <v>35</v>
+      <c r="T17">
+        <v>13863852</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.3">
@@ -2018,8 +1723,8 @@
       <c r="S18">
         <v>1590</v>
       </c>
-      <c r="T18" s="1" t="s">
-        <v>36</v>
+      <c r="T18">
+        <v>14038096</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.3">
@@ -2080,8 +1785,8 @@
       <c r="S19">
         <v>1654</v>
       </c>
-      <c r="T19" s="1" t="s">
-        <v>37</v>
+      <c r="T19">
+        <v>13713483</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.3">
@@ -2142,8 +1847,8 @@
       <c r="S20">
         <v>1648</v>
       </c>
-      <c r="T20" s="1" t="s">
-        <v>38</v>
+      <c r="T20">
+        <v>13938882</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.3">
@@ -2204,8 +1909,8 @@
       <c r="S21">
         <v>1625</v>
       </c>
-      <c r="T21" s="1" t="s">
-        <v>39</v>
+      <c r="T21">
+        <v>13264053</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.3">
@@ -2266,8 +1971,8 @@
       <c r="S22">
         <v>1585</v>
       </c>
-      <c r="T22" s="1" t="s">
-        <v>40</v>
+      <c r="T22">
+        <v>14263216</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.3">
@@ -2328,8 +2033,8 @@
       <c r="S23">
         <v>1662</v>
       </c>
-      <c r="T23" s="1" t="s">
-        <v>41</v>
+      <c r="T23">
+        <v>13739140</v>
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.3">
@@ -2390,8 +2095,8 @@
       <c r="S24">
         <v>1686</v>
       </c>
-      <c r="T24" s="1" t="s">
-        <v>42</v>
+      <c r="T24">
+        <v>13013601</v>
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.3">
@@ -2452,8 +2157,8 @@
       <c r="S25">
         <v>1716</v>
       </c>
-      <c r="T25" s="1" t="s">
-        <v>43</v>
+      <c r="T25">
+        <v>12689857</v>
       </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.3">
@@ -2514,8 +2219,8 @@
       <c r="S26">
         <v>1685</v>
       </c>
-      <c r="T26" s="1" t="s">
-        <v>44</v>
+      <c r="T26">
+        <v>13364612</v>
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.3">
@@ -2576,8 +2281,8 @@
       <c r="S27">
         <v>1651</v>
       </c>
-      <c r="T27" s="1" t="s">
-        <v>45</v>
+      <c r="T27">
+        <v>13363367</v>
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.3">
@@ -2638,8 +2343,8 @@
       <c r="S28">
         <v>1654</v>
       </c>
-      <c r="T28" s="1" t="s">
-        <v>46</v>
+      <c r="T28">
+        <v>13013713</v>
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.3">
@@ -2700,8 +2405,8 @@
       <c r="S29">
         <v>1744</v>
       </c>
-      <c r="T29" s="1" t="s">
-        <v>47</v>
+      <c r="T29">
+        <v>13738763</v>
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.3">
@@ -2762,8 +2467,8 @@
       <c r="S30">
         <v>1748</v>
       </c>
-      <c r="T30" s="1" t="s">
-        <v>48</v>
+      <c r="T30">
+        <v>13839217</v>
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.3">
@@ -2824,8 +2529,8 @@
       <c r="S31">
         <v>1782</v>
       </c>
-      <c r="T31" s="1" t="s">
-        <v>49</v>
+      <c r="T31">
+        <v>13239310</v>
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.3">
@@ -2886,8 +2591,8 @@
       <c r="S32">
         <v>1708</v>
       </c>
-      <c r="T32" s="1" t="s">
-        <v>50</v>
+      <c r="T32">
+        <v>13389465</v>
       </c>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.3">
@@ -2948,8 +2653,8 @@
       <c r="S33">
         <v>1527</v>
       </c>
-      <c r="T33" s="1" t="s">
-        <v>51</v>
+      <c r="T33">
+        <v>13437937</v>
       </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.3">
@@ -3010,8 +2715,8 @@
       <c r="S34">
         <v>1525</v>
       </c>
-      <c r="T34" s="1" t="s">
-        <v>52</v>
+      <c r="T34">
+        <v>13964019</v>
       </c>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.3">
@@ -3072,8 +2777,8 @@
       <c r="S35">
         <v>1634</v>
       </c>
-      <c r="T35" s="1" t="s">
-        <v>53</v>
+      <c r="T35">
+        <v>13663584</v>
       </c>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.3">
@@ -3134,8 +2839,8 @@
       <c r="S36">
         <v>1614</v>
       </c>
-      <c r="T36" s="1" t="s">
-        <v>54</v>
+      <c r="T36">
+        <v>14263202</v>
       </c>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.3">
@@ -3196,8 +2901,8 @@
       <c r="S37">
         <v>1462</v>
       </c>
-      <c r="T37" s="1" t="s">
-        <v>55</v>
+      <c r="T37">
+        <v>13637477</v>
       </c>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.3">
@@ -3258,8 +2963,8 @@
       <c r="S38">
         <v>1610</v>
       </c>
-      <c r="T38" s="1" t="s">
-        <v>56</v>
+      <c r="T38">
+        <v>13064442</v>
       </c>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.3">
@@ -3320,8 +3025,8 @@
       <c r="S39">
         <v>1709</v>
       </c>
-      <c r="T39" s="1" t="s">
-        <v>57</v>
+      <c r="T39">
+        <v>13864014</v>
       </c>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.3">
@@ -3382,8 +3087,8 @@
       <c r="S40">
         <v>1639</v>
       </c>
-      <c r="T40" s="1" t="s">
-        <v>58</v>
+      <c r="T40">
+        <v>13038451</v>
       </c>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.3">
@@ -3444,8 +3149,8 @@
       <c r="S41">
         <v>1647</v>
       </c>
-      <c r="T41" s="1" t="s">
-        <v>59</v>
+      <c r="T41">
+        <v>13938274</v>
       </c>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.3">
@@ -3506,8 +3211,8 @@
       <c r="S42">
         <v>1531</v>
       </c>
-      <c r="T42" s="1" t="s">
-        <v>60</v>
+      <c r="T42">
+        <v>13338354</v>
       </c>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.3">
@@ -3568,8 +3273,8 @@
       <c r="S43">
         <v>1760</v>
       </c>
-      <c r="T43" s="1" t="s">
-        <v>61</v>
+      <c r="T43">
+        <v>13239705</v>
       </c>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.3">
@@ -3630,8 +3335,8 @@
       <c r="S44">
         <v>1538</v>
       </c>
-      <c r="T44" s="1" t="s">
-        <v>62</v>
+      <c r="T44">
+        <v>14288470</v>
       </c>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.3">
@@ -3692,8 +3397,8 @@
       <c r="S45">
         <v>1596</v>
       </c>
-      <c r="T45" s="1" t="s">
-        <v>63</v>
+      <c r="T45">
+        <v>13814368</v>
       </c>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.3">
@@ -3754,8 +3459,8 @@
       <c r="S46">
         <v>1671</v>
       </c>
-      <c r="T46" s="1" t="s">
-        <v>64</v>
+      <c r="T46">
+        <v>13938976</v>
       </c>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.3">
@@ -3816,8 +3521,8 @@
       <c r="S47">
         <v>1782</v>
       </c>
-      <c r="T47" s="1" t="s">
-        <v>65</v>
+      <c r="T47">
+        <v>13889641</v>
       </c>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.3">
@@ -3878,8 +3583,8 @@
       <c r="S48">
         <v>1683</v>
       </c>
-      <c r="T48" s="1" t="s">
-        <v>66</v>
+      <c r="T48">
+        <v>13739035</v>
       </c>
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.3">
@@ -3940,8 +3645,8 @@
       <c r="S49">
         <v>1664</v>
       </c>
-      <c r="T49" s="1" t="s">
-        <v>67</v>
+      <c r="T49">
+        <v>13089062</v>
       </c>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.3">
@@ -4002,8 +3707,8 @@
       <c r="S50">
         <v>1609</v>
       </c>
-      <c r="T50" s="1" t="s">
-        <v>68</v>
+      <c r="T50">
+        <v>13688204</v>
       </c>
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.3">
@@ -4064,8 +3769,8 @@
       <c r="S51">
         <v>1744</v>
       </c>
-      <c r="T51" s="1" t="s">
-        <v>69</v>
+      <c r="T51">
+        <v>13388224</v>
       </c>
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.3">
@@ -4126,8 +3831,8 @@
       <c r="S52">
         <v>1588</v>
       </c>
-      <c r="T52" s="1" t="s">
-        <v>70</v>
+      <c r="T52">
+        <v>13938335</v>
       </c>
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.3">
@@ -4188,8 +3893,8 @@
       <c r="S53">
         <v>1565</v>
       </c>
-      <c r="T53" s="1" t="s">
-        <v>71</v>
+      <c r="T53">
+        <v>14438221</v>
       </c>
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.3">
@@ -4250,8 +3955,8 @@
       <c r="S54">
         <v>1685</v>
       </c>
-      <c r="T54" s="1" t="s">
-        <v>72</v>
+      <c r="T54">
+        <v>13413637</v>
       </c>
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.3">
@@ -4312,8 +4017,8 @@
       <c r="S55">
         <v>1697</v>
       </c>
-      <c r="T55" s="1" t="s">
-        <v>73</v>
+      <c r="T55">
+        <v>14164524</v>
       </c>
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.3">
@@ -4374,8 +4079,8 @@
       <c r="S56">
         <v>1588</v>
       </c>
-      <c r="T56" s="1" t="s">
-        <v>74</v>
+      <c r="T56">
+        <v>13863838</v>
       </c>
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.3">
@@ -4436,8 +4141,8 @@
       <c r="S57">
         <v>1791</v>
       </c>
-      <c r="T57" s="1" t="s">
-        <v>75</v>
+      <c r="T57">
+        <v>12339861</v>
       </c>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.3">
@@ -4498,8 +4203,8 @@
       <c r="S58">
         <v>1602</v>
       </c>
-      <c r="T58" s="1" t="s">
-        <v>76</v>
+      <c r="T58">
+        <v>13362582</v>
       </c>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.3">
@@ -4560,8 +4265,8 @@
       <c r="S59">
         <v>1571</v>
       </c>
-      <c r="T59" s="1" t="s">
-        <v>77</v>
+      <c r="T59">
+        <v>13463111</v>
       </c>
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.3">
@@ -4622,8 +4327,8 @@
       <c r="S60">
         <v>1619</v>
       </c>
-      <c r="T60" s="1" t="s">
-        <v>78</v>
+      <c r="T60">
+        <v>14412518</v>
       </c>
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.3">
@@ -4684,8 +4389,8 @@
       <c r="S61">
         <v>1672</v>
       </c>
-      <c r="T61" s="1" t="s">
-        <v>79</v>
+      <c r="T61">
+        <v>13788682</v>
       </c>
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.3">
@@ -4746,8 +4451,8 @@
       <c r="S62">
         <v>1739</v>
       </c>
-      <c r="T62" s="1" t="s">
-        <v>80</v>
+      <c r="T62">
+        <v>14464393</v>
       </c>
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.3">
@@ -4808,8 +4513,8 @@
       <c r="S63">
         <v>1611</v>
       </c>
-      <c r="T63" s="1" t="s">
-        <v>81</v>
+      <c r="T63">
+        <v>13663253</v>
       </c>
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.3">
@@ -4870,8 +4575,8 @@
       <c r="S64">
         <v>1717</v>
       </c>
-      <c r="T64" s="1" t="s">
-        <v>82</v>
+      <c r="T64">
+        <v>12739051</v>
       </c>
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.3">
@@ -4932,8 +4637,8 @@
       <c r="S65">
         <v>1621</v>
       </c>
-      <c r="T65" s="1" t="s">
-        <v>83</v>
+      <c r="T65">
+        <v>13913305</v>
       </c>
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.3">
@@ -4994,8 +4699,8 @@
       <c r="S66">
         <v>1739</v>
       </c>
-      <c r="T66" s="1" t="s">
-        <v>84</v>
+      <c r="T66">
+        <v>12514278</v>
       </c>
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.3">
@@ -5056,8 +4761,8 @@
       <c r="S67">
         <v>1615</v>
       </c>
-      <c r="T67" s="1" t="s">
-        <v>85</v>
+      <c r="T67">
+        <v>13488375</v>
       </c>
     </row>
     <row r="68" spans="1:20" x14ac:dyDescent="0.3">
@@ -5118,8 +4823,8 @@
       <c r="S68">
         <v>1616</v>
       </c>
-      <c r="T68" s="1" t="s">
-        <v>86</v>
+      <c r="T68">
+        <v>13938726</v>
       </c>
     </row>
     <row r="69" spans="1:20" x14ac:dyDescent="0.3">
@@ -5180,8 +4885,8 @@
       <c r="S69">
         <v>1524</v>
       </c>
-      <c r="T69" s="1" t="s">
-        <v>87</v>
+      <c r="T69">
+        <v>13638669</v>
       </c>
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.3">
@@ -5242,8 +4947,8 @@
       <c r="S70">
         <v>1747</v>
       </c>
-      <c r="T70" s="1" t="s">
-        <v>88</v>
+      <c r="T70">
+        <v>14364177</v>
       </c>
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.3">
@@ -5304,8 +5009,8 @@
       <c r="S71">
         <v>1693</v>
       </c>
-      <c r="T71" s="1" t="s">
-        <v>89</v>
+      <c r="T71">
+        <v>12539036</v>
       </c>
     </row>
     <row r="72" spans="1:20" x14ac:dyDescent="0.3">
@@ -5366,8 +5071,8 @@
       <c r="S72">
         <v>1665</v>
       </c>
-      <c r="T72" s="1" t="s">
-        <v>90</v>
+      <c r="T72">
+        <v>13639194</v>
       </c>
     </row>
     <row r="73" spans="1:20" x14ac:dyDescent="0.3">
@@ -5428,8 +5133,8 @@
       <c r="S73">
         <v>1559</v>
       </c>
-      <c r="T73" s="1" t="s">
-        <v>91</v>
+      <c r="T73">
+        <v>12813934</v>
       </c>
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.3">
@@ -5490,8 +5195,8 @@
       <c r="S74">
         <v>1585</v>
       </c>
-      <c r="T74" s="1" t="s">
-        <v>92</v>
+      <c r="T74">
+        <v>14187991</v>
       </c>
     </row>
     <row r="75" spans="1:20" x14ac:dyDescent="0.3">
@@ -5552,8 +5257,8 @@
       <c r="S75">
         <v>1654</v>
       </c>
-      <c r="T75" s="1" t="s">
-        <v>93</v>
+      <c r="T75">
+        <v>13288729</v>
       </c>
     </row>
     <row r="76" spans="1:20" x14ac:dyDescent="0.3">
@@ -5614,8 +5319,8 @@
       <c r="S76">
         <v>1692</v>
       </c>
-      <c r="T76" s="1" t="s">
-        <v>94</v>
+      <c r="T76">
+        <v>14513526</v>
       </c>
     </row>
     <row r="77" spans="1:20" x14ac:dyDescent="0.3">
@@ -5676,8 +5381,8 @@
       <c r="S77">
         <v>1605</v>
       </c>
-      <c r="T77" s="1" t="s">
-        <v>95</v>
+      <c r="T77">
+        <v>13539305</v>
       </c>
     </row>
     <row r="78" spans="1:20" x14ac:dyDescent="0.3">
@@ -5738,8 +5443,8 @@
       <c r="S78">
         <v>1507</v>
       </c>
-      <c r="T78" s="1" t="s">
-        <v>96</v>
+      <c r="T78">
+        <v>14112679</v>
       </c>
     </row>
     <row r="79" spans="1:20" x14ac:dyDescent="0.3">
@@ -5800,8 +5505,8 @@
       <c r="S79">
         <v>1697</v>
       </c>
-      <c r="T79" s="1" t="s">
-        <v>97</v>
+      <c r="T79">
+        <v>13313659</v>
       </c>
     </row>
     <row r="80" spans="1:20" x14ac:dyDescent="0.3">
@@ -5862,8 +5567,8 @@
       <c r="S80">
         <v>1513</v>
       </c>
-      <c r="T80" s="1" t="s">
-        <v>98</v>
+      <c r="T80">
+        <v>13562456</v>
       </c>
     </row>
     <row r="81" spans="1:20" x14ac:dyDescent="0.3">
@@ -5924,8 +5629,8 @@
       <c r="S81">
         <v>1645</v>
       </c>
-      <c r="T81" s="1" t="s">
-        <v>99</v>
+      <c r="T81">
+        <v>13939027</v>
       </c>
     </row>
     <row r="82" spans="1:20" x14ac:dyDescent="0.3">
@@ -5986,8 +5691,8 @@
       <c r="S82">
         <v>1407</v>
       </c>
-      <c r="T82" s="1" t="s">
-        <v>100</v>
+      <c r="T82">
+        <v>13437934</v>
       </c>
     </row>
     <row r="83" spans="1:20" x14ac:dyDescent="0.3">
@@ -6048,8 +5753,8 @@
       <c r="S83">
         <v>1692</v>
       </c>
-      <c r="T83" s="1" t="s">
-        <v>101</v>
+      <c r="T83">
+        <v>13164363</v>
       </c>
     </row>
     <row r="84" spans="1:20" x14ac:dyDescent="0.3">
@@ -6110,8 +5815,8 @@
       <c r="S84">
         <v>1481</v>
       </c>
-      <c r="T84" s="1" t="s">
-        <v>102</v>
+      <c r="T84">
+        <v>14737507</v>
       </c>
     </row>
     <row r="85" spans="1:20" x14ac:dyDescent="0.3">
@@ -6172,8 +5877,8 @@
       <c r="S85">
         <v>1662</v>
       </c>
-      <c r="T85" s="1" t="s">
-        <v>103</v>
+      <c r="T85">
+        <v>13563675</v>
       </c>
     </row>
     <row r="86" spans="1:20" x14ac:dyDescent="0.3">
@@ -6234,8 +5939,8 @@
       <c r="S86">
         <v>1719</v>
       </c>
-      <c r="T86" s="1" t="s">
-        <v>104</v>
+      <c r="T86">
+        <v>13389945</v>
       </c>
     </row>
     <row r="87" spans="1:20" x14ac:dyDescent="0.3">
@@ -6296,8 +6001,8 @@
       <c r="S87">
         <v>1590</v>
       </c>
-      <c r="T87" s="1" t="s">
-        <v>105</v>
+      <c r="T87">
+        <v>12764358</v>
       </c>
     </row>
     <row r="88" spans="1:20" x14ac:dyDescent="0.3">
@@ -6358,8 +6063,8 @@
       <c r="S88">
         <v>1626</v>
       </c>
-      <c r="T88" s="1" t="s">
-        <v>106</v>
+      <c r="T88">
+        <v>14213341</v>
       </c>
     </row>
     <row r="89" spans="1:20" x14ac:dyDescent="0.3">
@@ -6420,8 +6125,8 @@
       <c r="S89">
         <v>1656</v>
       </c>
-      <c r="T89" s="1" t="s">
-        <v>107</v>
+      <c r="T89">
+        <v>12963627</v>
       </c>
     </row>
     <row r="90" spans="1:20" x14ac:dyDescent="0.3">
@@ -6482,8 +6187,8 @@
       <c r="S90">
         <v>1585</v>
       </c>
-      <c r="T90" s="1" t="s">
-        <v>108</v>
+      <c r="T90">
+        <v>12988457</v>
       </c>
     </row>
     <row r="91" spans="1:20" x14ac:dyDescent="0.3">
@@ -6544,8 +6249,8 @@
       <c r="S91">
         <v>1716</v>
       </c>
-      <c r="T91" s="1" t="s">
-        <v>109</v>
+      <c r="T91">
+        <v>12939941</v>
       </c>
     </row>
     <row r="92" spans="1:20" x14ac:dyDescent="0.3">
@@ -6606,8 +6311,8 @@
       <c r="S92">
         <v>1520</v>
       </c>
-      <c r="T92" s="1" t="s">
-        <v>110</v>
+      <c r="T92">
+        <v>14188548</v>
       </c>
     </row>
     <row r="93" spans="1:20" x14ac:dyDescent="0.3">
@@ -6668,8 +6373,8 @@
       <c r="S93">
         <v>1644</v>
       </c>
-      <c r="T93" s="1" t="s">
-        <v>111</v>
+      <c r="T93">
+        <v>13863721</v>
       </c>
     </row>
     <row r="94" spans="1:20" x14ac:dyDescent="0.3">
@@ -6730,8 +6435,8 @@
       <c r="S94">
         <v>1562</v>
       </c>
-      <c r="T94" s="1" t="s">
-        <v>112</v>
+      <c r="T94">
+        <v>13239020</v>
       </c>
     </row>
     <row r="95" spans="1:20" x14ac:dyDescent="0.3">
@@ -6792,8 +6497,8 @@
       <c r="S95">
         <v>1801</v>
       </c>
-      <c r="T95" s="1" t="s">
-        <v>113</v>
+      <c r="T95">
+        <v>12814515</v>
       </c>
     </row>
     <row r="96" spans="1:20" x14ac:dyDescent="0.3">
@@ -6854,8 +6559,8 @@
       <c r="S96">
         <v>1636</v>
       </c>
-      <c r="T96" s="1" t="s">
-        <v>114</v>
+      <c r="T96">
+        <v>13513650</v>
       </c>
     </row>
     <row r="97" spans="1:20" x14ac:dyDescent="0.3">
@@ -6916,8 +6621,8 @@
       <c r="S97">
         <v>1580</v>
       </c>
-      <c r="T97" s="1" t="s">
-        <v>115</v>
+      <c r="T97">
+        <v>13838107</v>
       </c>
     </row>
     <row r="98" spans="1:20" x14ac:dyDescent="0.3">
@@ -6978,8 +6683,8 @@
       <c r="S98">
         <v>1596</v>
       </c>
-      <c r="T98" s="1" t="s">
-        <v>116</v>
+      <c r="T98">
+        <v>13788331</v>
       </c>
     </row>
     <row r="99" spans="1:20" x14ac:dyDescent="0.3">
@@ -7040,8 +6745,8 @@
       <c r="S99">
         <v>1691</v>
       </c>
-      <c r="T99" s="1" t="s">
-        <v>117</v>
+      <c r="T99">
+        <v>14038211</v>
       </c>
     </row>
     <row r="100" spans="1:20" x14ac:dyDescent="0.3">
@@ -7102,8 +6807,8 @@
       <c r="S100">
         <v>1632</v>
       </c>
-      <c r="T100" s="1" t="s">
-        <v>118</v>
+      <c r="T100">
+        <v>12288806</v>
       </c>
     </row>
     <row r="101" spans="1:20" x14ac:dyDescent="0.3">
@@ -7164,8 +6869,8 @@
       <c r="S101">
         <v>1599</v>
       </c>
-      <c r="T101" s="1" t="s">
-        <v>119</v>
+      <c r="T101">
+        <v>13838905</v>
       </c>
     </row>
   </sheetData>
@@ -7173,552 +6878,6 @@
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B70A49AB-15D3-4140-8F67-4115CFB79BB3}">
-  <dimension ref="A1:D100"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="2">
-        <v>13987053</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="3">
-        <v>12987763</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
-        <v>12914222</v>
-      </c>
-      <c r="C3" t="s">
-        <v>120</v>
-      </c>
-      <c r="D3">
-        <f>MAX(A1:A100)</f>
-        <v>14863807</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
-        <v>13539927</v>
-      </c>
-      <c r="C4" t="s">
-        <v>121</v>
-      </c>
-      <c r="D4">
-        <f>MIN(A1:A100)</f>
-        <v>12288806</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
-        <v>12515292</v>
-      </c>
-      <c r="C5" t="s">
-        <v>122</v>
-      </c>
-      <c r="D5">
-        <f>AVERAGEA(A1:A100)</f>
-        <v>13578254.970000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
-        <v>13713853</v>
-      </c>
-      <c r="C6" t="s">
-        <v>123</v>
-      </c>
-      <c r="D6">
-        <f>STDEVA(A1:A100)</f>
-        <v>539799.37635847554</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
-        <v>13413673</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="3">
-        <v>13713019</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
-        <v>14863807</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="3">
-        <v>14013839</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
-        <v>14013910</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="3">
-        <v>12689070</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
-        <v>13814820</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="3">
-        <v>14063379</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="2">
-        <v>12889770</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="3">
-        <v>13863852</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="2">
-        <v>14038096</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="3">
-        <v>13713483</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="2">
-        <v>13938882</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="3">
-        <v>13264053</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="2">
-        <v>14263216</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="3">
-        <v>13739140</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="2">
-        <v>13013601</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" s="3">
-        <v>12689857</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" s="2">
-        <v>13364612</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" s="3">
-        <v>13363367</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" s="2">
-        <v>13013713</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" s="3">
-        <v>13738763</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" s="2">
-        <v>13839217</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" s="3">
-        <v>13239310</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" s="2">
-        <v>13389465</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32" s="3">
-        <v>13437937</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" s="2">
-        <v>13964019</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" s="3">
-        <v>13663584</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" s="2">
-        <v>14263202</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36" s="3">
-        <v>13637477</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37" s="2">
-        <v>13064442</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A38" s="3">
-        <v>13864014</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A39" s="2">
-        <v>13038451</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A40" s="3">
-        <v>13938274</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A41" s="2">
-        <v>13338354</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A42" s="3">
-        <v>13239705</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A43" s="2">
-        <v>14288470</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A44" s="3">
-        <v>13814368</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A45" s="2">
-        <v>13938976</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A46" s="3">
-        <v>13889641</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A47" s="2">
-        <v>13739035</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A48" s="3">
-        <v>13089062</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A49" s="2">
-        <v>13688204</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A50" s="3">
-        <v>13388224</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A51" s="2">
-        <v>13938335</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A52" s="3">
-        <v>14438221</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A53" s="2">
-        <v>13413637</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A54" s="3">
-        <v>14164524</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A55" s="2">
-        <v>13863838</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A56" s="3">
-        <v>12339861</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A57" s="2">
-        <v>13362582</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A58" s="3">
-        <v>13463111</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A59" s="2">
-        <v>14412518</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A60" s="3">
-        <v>13788682</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A61" s="2">
-        <v>14464393</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A62" s="3">
-        <v>13663253</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A63" s="2">
-        <v>12739051</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A64" s="3">
-        <v>13913305</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A65" s="2">
-        <v>12514278</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A66" s="3">
-        <v>13488375</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A67" s="2">
-        <v>13938726</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A68" s="3">
-        <v>13638669</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A69" s="2">
-        <v>14364177</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A70" s="3">
-        <v>12539036</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A71" s="2">
-        <v>13639194</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A72" s="3">
-        <v>12813934</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A73" s="2">
-        <v>14187991</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A74" s="3">
-        <v>13288729</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A75" s="2">
-        <v>14513526</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A76" s="3">
-        <v>13539305</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A77" s="2">
-        <v>14112679</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A78" s="3">
-        <v>13313659</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A79" s="2">
-        <v>13562456</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A80" s="3">
-        <v>13939027</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A81" s="2">
-        <v>13437934</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A82" s="3">
-        <v>13164363</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A83" s="2">
-        <v>14737507</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A84" s="3">
-        <v>13563675</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A85" s="2">
-        <v>13389945</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A86" s="3">
-        <v>12764358</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A87" s="2">
-        <v>14213341</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A88" s="3">
-        <v>12963627</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A89" s="2">
-        <v>12988457</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A90" s="3">
-        <v>12939941</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A91" s="2">
-        <v>14188548</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A92" s="3">
-        <v>13863721</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A93" s="2">
-        <v>13239020</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A94" s="3">
-        <v>12814515</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A95" s="2">
-        <v>13513650</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A96" s="3">
-        <v>13838107</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A97" s="2">
-        <v>13788331</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A98" s="3">
-        <v>14038211</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A99" s="2">
-        <v>12288806</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A100" s="3">
-        <v>13838905</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
